--- a/data/Datasets/Tumors/Metadata_choort_7_8.xlsx
+++ b/data/Datasets/Tumors/Metadata_choort_7_8.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\glori\Desktop\Datasets\Tumor_Datasets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\glori\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{37A775A8-2458-4B0A-8902-B29CDDBDE2D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0347F90-6164-4920-8F9C-C487616C61D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="131">
   <si>
     <t>ID</t>
   </si>
@@ -424,13 +424,19 @@
   </si>
   <si>
     <t>non-ETP</t>
+  </si>
+  <si>
+    <t>Subtype</t>
+  </si>
+  <si>
+    <t>T</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -505,6 +511,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -537,10 +550,11 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Normal 2" xfId="4" xr:uid="{9C17F6E5-3F77-8146-B05B-3C819604ADA5}"/>
@@ -828,10 +842,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G110"/>
+  <dimension ref="A1:J110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="J106" sqref="J106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15"/>
@@ -843,12 +857,12 @@
     <col min="8" max="16384" width="10.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" ht="15.6">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="15.6">
       <c r="A1" s="2" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="2" customFormat="1" ht="15.6">
+    <row r="2" spans="1:8" s="2" customFormat="1" ht="15.6">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -870,8 +884,11 @@
       <c r="G2" s="2" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -893,8 +910,11 @@
       <c r="G3" s="1" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
         <v>38</v>
       </c>
@@ -916,8 +936,11 @@
       <c r="G4" s="1" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -939,8 +962,11 @@
       <c r="G5" s="1" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -962,8 +988,11 @@
       <c r="G6" s="1" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -985,8 +1014,11 @@
       <c r="G7" s="1" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -1008,8 +1040,11 @@
       <c r="G8" s="1" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
         <v>39</v>
       </c>
@@ -1031,8 +1066,11 @@
       <c r="G9" s="1" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="H9" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -1054,8 +1092,11 @@
       <c r="G10" s="1" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="H10" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -1077,8 +1118,11 @@
       <c r="G11" s="1" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="H11" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
@@ -1100,8 +1144,11 @@
       <c r="G12" s="1" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="H12" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
@@ -1123,8 +1170,11 @@
       <c r="G13" s="1" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="H13" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
@@ -1146,8 +1196,11 @@
       <c r="G14" s="1" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="H14" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
         <v>17</v>
       </c>
@@ -1169,8 +1222,11 @@
       <c r="G15" s="1" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
@@ -1192,8 +1248,11 @@
       <c r="G16" s="1" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="H16" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
         <v>19</v>
       </c>
@@ -1215,8 +1274,11 @@
       <c r="G17" s="1" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
         <v>20</v>
       </c>
@@ -1238,8 +1300,11 @@
       <c r="G18" s="1" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
         <v>21</v>
       </c>
@@ -1261,8 +1326,11 @@
       <c r="G19" s="1" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
         <v>22</v>
       </c>
@@ -1284,8 +1352,11 @@
       <c r="G20" s="1" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="H20" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
         <v>23</v>
       </c>
@@ -1307,8 +1378,11 @@
       <c r="G21" s="1" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="H21" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
         <v>40</v>
       </c>
@@ -1330,8 +1404,11 @@
       <c r="G22" s="1" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
         <v>24</v>
       </c>
@@ -1353,8 +1430,11 @@
       <c r="G23" s="1" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
         <v>25</v>
       </c>
@@ -1376,8 +1456,11 @@
       <c r="G24" s="1" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="H24" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
         <v>26</v>
       </c>
@@ -1399,8 +1482,11 @@
       <c r="G25" s="1" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="H25" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
         <v>27</v>
       </c>
@@ -1422,8 +1508,11 @@
       <c r="G26" s="1" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="H26" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
         <v>41</v>
       </c>
@@ -1445,8 +1534,11 @@
       <c r="G27" s="1" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="H27" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
         <v>42</v>
       </c>
@@ -1468,8 +1560,11 @@
       <c r="G28" s="1" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="29" spans="1:7">
+      <c r="H28" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
@@ -1491,8 +1586,11 @@
       <c r="G29" s="1" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="30" spans="1:7">
+      <c r="H29" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
@@ -1514,8 +1612,11 @@
       <c r="G30" s="1" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="31" spans="1:7">
+      <c r="H30" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
@@ -1537,8 +1638,11 @@
       <c r="G31" s="1" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="32" spans="1:7">
+      <c r="H31" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
         <v>43</v>
       </c>
@@ -1560,8 +1664,11 @@
       <c r="G32" s="1" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="33" spans="1:7">
+      <c r="H32" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
@@ -1583,8 +1690,11 @@
       <c r="G33" s="1" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="34" spans="1:7">
+      <c r="H33" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
         <v>44</v>
       </c>
@@ -1606,8 +1716,11 @@
       <c r="G34" s="1" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="35" spans="1:7">
+      <c r="H34" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
         <v>32</v>
       </c>
@@ -1629,8 +1742,11 @@
       <c r="G35" s="1" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
         <v>45</v>
       </c>
@@ -1652,8 +1768,11 @@
       <c r="G36" s="1" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="37" spans="1:7">
+      <c r="H36" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
         <v>33</v>
       </c>
@@ -1675,8 +1794,11 @@
       <c r="G37" s="1" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
         <v>34</v>
       </c>
@@ -1698,8 +1820,11 @@
       <c r="G38" s="1" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="39" spans="1:7">
+      <c r="H38" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
         <v>35</v>
       </c>
@@ -1721,8 +1846,11 @@
       <c r="G39" s="1" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="40" spans="1:7">
+      <c r="H39" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
         <v>46</v>
       </c>
@@ -1744,8 +1872,11 @@
       <c r="G40" s="1" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="41" spans="1:7">
+      <c r="H40" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
         <v>36</v>
       </c>
@@ -1767,8 +1898,11 @@
       <c r="G41" s="1" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="42" spans="1:7">
+      <c r="H41" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
         <v>37</v>
       </c>
@@ -1790,8 +1924,11 @@
       <c r="G42" s="1" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="H42" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
         <v>47</v>
       </c>
@@ -1813,8 +1950,11 @@
       <c r="G43" s="1" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="44" spans="1:7">
+      <c r="H43" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
         <v>56</v>
       </c>
@@ -1836,8 +1976,11 @@
       <c r="G44" s="1" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="45" spans="1:7">
+      <c r="H44" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
         <v>57</v>
       </c>
@@ -1859,8 +2002,11 @@
       <c r="G45" s="1" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
         <v>58</v>
       </c>
@@ -1882,8 +2028,11 @@
       <c r="G46" s="1" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="47" spans="1:7">
+      <c r="H46" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
         <v>59</v>
       </c>
@@ -1905,8 +2054,11 @@
       <c r="G47" s="1" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="48" spans="1:7">
+      <c r="H47" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
         <v>60</v>
       </c>
@@ -1928,8 +2080,11 @@
       <c r="G48" s="1" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="49" spans="1:7">
+      <c r="H48" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
         <v>61</v>
       </c>
@@ -1951,8 +2106,11 @@
       <c r="G49" s="1" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
         <v>48</v>
       </c>
@@ -1974,8 +2132,11 @@
       <c r="G50" s="1" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="51" spans="1:7">
+      <c r="H50" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
         <v>49</v>
       </c>
@@ -1997,8 +2158,11 @@
       <c r="G51" s="1" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="52" spans="1:7">
+      <c r="H51" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
         <v>50</v>
       </c>
@@ -2020,8 +2184,11 @@
       <c r="G52" s="1" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
         <v>51</v>
       </c>
@@ -2043,8 +2210,11 @@
       <c r="G53" s="1" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="54" spans="1:7">
+      <c r="H53" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
         <v>52</v>
       </c>
@@ -2066,8 +2236,11 @@
       <c r="G54" s="1" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="55" spans="1:7">
+      <c r="H54" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
         <v>53</v>
       </c>
@@ -2089,8 +2262,11 @@
       <c r="G55" s="1" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="56" spans="1:7">
+      <c r="H55" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
         <v>54</v>
       </c>
@@ -2112,8 +2288,11 @@
       <c r="G56" s="1" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="57" spans="1:7">
+      <c r="H56" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
         <v>55</v>
       </c>
@@ -2135,8 +2314,11 @@
       <c r="G57" s="1" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="58" spans="1:7">
+      <c r="H57" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
         <v>113</v>
       </c>
@@ -2158,8 +2340,11 @@
       <c r="G58" s="1" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="59" spans="1:7">
+      <c r="H58" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
         <v>114</v>
       </c>
@@ -2181,8 +2366,11 @@
       <c r="G59" s="1" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="60" spans="1:7">
+      <c r="H59" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
         <v>62</v>
       </c>
@@ -2204,8 +2392,11 @@
       <c r="G60" s="1" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="61" spans="1:7">
+      <c r="H60" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
         <v>71</v>
       </c>
@@ -2227,8 +2418,11 @@
       <c r="G61" s="1" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="62" spans="1:7">
+      <c r="H61" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
         <v>72</v>
       </c>
@@ -2250,8 +2444,11 @@
       <c r="G62" s="1" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
         <v>73</v>
       </c>
@@ -2273,8 +2470,11 @@
       <c r="G63" s="1" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="64" spans="1:7">
+      <c r="H63" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
         <v>74</v>
       </c>
@@ -2296,8 +2496,11 @@
       <c r="G64" s="1" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="65" spans="1:7">
+      <c r="H64" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
         <v>75</v>
       </c>
@@ -2319,8 +2522,11 @@
       <c r="G65" s="1" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="66" spans="1:7">
+      <c r="H65" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
         <v>63</v>
       </c>
@@ -2342,8 +2548,11 @@
       <c r="G66" s="1" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="67" spans="1:7">
+      <c r="H66" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
         <v>64</v>
       </c>
@@ -2365,8 +2574,11 @@
       <c r="G67" s="1" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="68" spans="1:7">
+      <c r="H67" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
         <v>65</v>
       </c>
@@ -2388,8 +2600,11 @@
       <c r="G68" s="1" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="69" spans="1:7">
+      <c r="H68" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
         <v>66</v>
       </c>
@@ -2411,8 +2626,11 @@
       <c r="G69" s="1" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="70" spans="1:7">
+      <c r="H69" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
         <v>67</v>
       </c>
@@ -2434,8 +2652,11 @@
       <c r="G70" s="1" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
         <v>68</v>
       </c>
@@ -2457,8 +2678,11 @@
       <c r="G71" s="1" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="72" spans="1:7">
+      <c r="H71" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
         <v>69</v>
       </c>
@@ -2480,8 +2704,11 @@
       <c r="G72" s="1" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="73" spans="1:7">
+      <c r="H72" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
         <v>70</v>
       </c>
@@ -2503,8 +2730,11 @@
       <c r="G73" s="1" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="74" spans="1:7">
+      <c r="H73" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
         <v>76</v>
       </c>
@@ -2526,8 +2756,11 @@
       <c r="G74" s="1" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="75" spans="1:7">
+      <c r="H74" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
         <v>85</v>
       </c>
@@ -2549,8 +2782,11 @@
       <c r="G75" s="1" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="76" spans="1:7">
+      <c r="H75" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
         <v>86</v>
       </c>
@@ -2572,8 +2808,11 @@
       <c r="G76" s="1" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="77" spans="1:7">
+      <c r="H76" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
         <v>87</v>
       </c>
@@ -2595,8 +2834,11 @@
       <c r="G77" s="1" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="78" spans="1:7">
+      <c r="H77" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
         <v>88</v>
       </c>
@@ -2618,8 +2860,11 @@
       <c r="G78" s="1" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="79" spans="1:7">
+      <c r="H78" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
         <v>89</v>
       </c>
@@ -2641,8 +2886,11 @@
       <c r="G79" s="1" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
         <v>90</v>
       </c>
@@ -2664,8 +2912,11 @@
       <c r="G80" s="1" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="81" spans="1:7">
+      <c r="H80" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
         <v>91</v>
       </c>
@@ -2687,8 +2938,11 @@
       <c r="G81" s="1" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="82" spans="1:7">
+      <c r="H81" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
         <v>92</v>
       </c>
@@ -2710,8 +2964,11 @@
       <c r="G82" s="1" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
         <v>93</v>
       </c>
@@ -2733,8 +2990,11 @@
       <c r="G83" s="1" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="84" spans="1:7">
+      <c r="H83" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
         <v>94</v>
       </c>
@@ -2756,8 +3016,11 @@
       <c r="G84" s="1" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
         <v>77</v>
       </c>
@@ -2779,8 +3042,11 @@
       <c r="G85" s="1" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="86" spans="1:7">
+      <c r="H85" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
         <v>95</v>
       </c>
@@ -2802,8 +3068,11 @@
       <c r="G86" s="1" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="87" spans="1:7">
+      <c r="H86" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
         <v>96</v>
       </c>
@@ -2825,8 +3094,11 @@
       <c r="G87" s="1" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="88" spans="1:7">
+      <c r="H87" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
         <v>97</v>
       </c>
@@ -2848,8 +3120,11 @@
       <c r="G88" s="1" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="89" spans="1:7">
+      <c r="H88" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
         <v>98</v>
       </c>
@@ -2871,8 +3146,11 @@
       <c r="G89" s="1" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="90" spans="1:7">
+      <c r="H89" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
         <v>99</v>
       </c>
@@ -2894,8 +3172,11 @@
       <c r="G90" s="1" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="91" spans="1:7">
+      <c r="H90" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
         <v>100</v>
       </c>
@@ -2917,8 +3198,11 @@
       <c r="G91" s="1" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="92" spans="1:7">
+      <c r="H91" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
         <v>101</v>
       </c>
@@ -2940,8 +3224,11 @@
       <c r="G92" s="1" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="93" spans="1:7">
+      <c r="H92" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
         <v>102</v>
       </c>
@@ -2963,8 +3250,11 @@
       <c r="G93" s="1" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="94" spans="1:7">
+      <c r="H93" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
         <v>103</v>
       </c>
@@ -2986,8 +3276,11 @@
       <c r="G94" s="1" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="95" spans="1:7">
+      <c r="H94" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
         <v>104</v>
       </c>
@@ -3009,8 +3302,11 @@
       <c r="G95" s="1" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="96" spans="1:7">
+      <c r="H95" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
         <v>78</v>
       </c>
@@ -3032,8 +3328,11 @@
       <c r="G96" s="1" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="s">
         <v>105</v>
       </c>
@@ -3055,8 +3354,11 @@
       <c r="G97" s="1" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="s">
         <v>106</v>
       </c>
@@ -3078,8 +3380,11 @@
       <c r="G98" s="1" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="99" spans="1:7">
+      <c r="H98" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="s">
         <v>107</v>
       </c>
@@ -3101,8 +3406,11 @@
       <c r="G99" s="1" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="s">
         <v>108</v>
       </c>
@@ -3124,8 +3432,11 @@
       <c r="G100" s="1" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="s">
         <v>109</v>
       </c>
@@ -3147,8 +3458,11 @@
       <c r="G101" s="1" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="102" spans="1:7">
+      <c r="H101" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="s">
         <v>110</v>
       </c>
@@ -3170,8 +3484,11 @@
       <c r="G102" s="1" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="103" spans="1:7">
+      <c r="H102" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="s">
         <v>111</v>
       </c>
@@ -3193,8 +3510,11 @@
       <c r="G103" s="1" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="104" spans="1:7">
+      <c r="H103" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="s">
         <v>112</v>
       </c>
@@ -3216,8 +3536,11 @@
       <c r="G104" s="1" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="105" spans="1:7">
+      <c r="H104" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="1" t="s">
         <v>79</v>
       </c>
@@ -3239,8 +3562,11 @@
       <c r="G105" s="1" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="106" spans="1:7">
+      <c r="H105" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" s="1" t="s">
         <v>80</v>
       </c>
@@ -3262,8 +3588,12 @@
       <c r="G106" s="1" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="107" spans="1:7">
+      <c r="H106" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="J106" s="3"/>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" s="1" t="s">
         <v>81</v>
       </c>
@@ -3285,8 +3615,11 @@
       <c r="G107" s="1" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="108" spans="1:7">
+      <c r="H107" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" s="1" t="s">
         <v>82</v>
       </c>
@@ -3308,8 +3641,11 @@
       <c r="G108" s="1" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="109" spans="1:7">
+      <c r="H108" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" s="1" t="s">
         <v>83</v>
       </c>
@@ -3331,8 +3667,11 @@
       <c r="G109" s="1" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="110" spans="1:7">
+      <c r="H109" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110" s="1" t="s">
         <v>84</v>
       </c>
@@ -3353,6 +3692,9 @@
       </c>
       <c r="G110" s="1" t="s">
         <v>124</v>
+      </c>
+      <c r="H110" s="1" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>
